--- a/Attendance Using Face Recognition/student.xlsx
+++ b/Attendance Using Face Recognition/student.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,10 +514,8 @@
           <t>abhi</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2304221520006</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2304221520006</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -532,6 +530,58 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>2nd</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>230</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>btech</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ai</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>b.tech</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ai</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
